--- a/issue_import.xlsx
+++ b/issue_import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Gereed</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Nee</t>
   </si>
   <si>
-    <t>213dsa</t>
-  </si>
-  <si>
-    <t>241wsda</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -117,12 +111,6 @@
     <t>Open</t>
   </si>
   <si>
-    <t>532ewt</t>
-  </si>
-  <si>
-    <t>567dsgg</t>
-  </si>
-  <si>
     <t>Act</t>
   </si>
   <si>
@@ -156,19 +144,7 @@
     <t>Pagina</t>
   </si>
   <si>
-    <t>353qwee</t>
-  </si>
-  <si>
-    <t>244fhd</t>
-  </si>
-  <si>
     <t>ease_import_sheet</t>
-  </si>
-  <si>
-    <t>312htr</t>
-  </si>
-  <si>
-    <t>646muy</t>
   </si>
   <si>
     <t>Hisham</t>
@@ -227,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -236,6 +212,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -535,7 +514,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -661,41 +640,41 @@
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1">
-        <v>12412</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="1">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="N4" s="1">
         <v>4</v>
@@ -710,48 +689,48 @@
         <v>43403</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1">
-        <v>51232</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="N5" s="1">
         <v>3</v>
@@ -766,48 +745,48 @@
         <v>43407</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9786</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -822,48 +801,48 @@
         <v>43408</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
-        <v>12312</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1">
-        <v>40</v>
+      <c r="B7" s="4">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N7" s="1">
         <v>20</v>
@@ -878,7 +857,7 @@
         <v>43409</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/issue_import.xlsx
+++ b/issue_import.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,7 +532,7 @@
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
     <col min="16" max="16" width="19.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" customWidth="1"/>
     <col min="18" max="18" width="15.140625" customWidth="1"/>
@@ -644,13 +644,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="E4" s="4">
-        <v>41</v>
+        <v>4123</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -680,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="O4" s="3">
-        <v>43402</v>
+        <v>43402.34375</v>
       </c>
       <c r="P4" s="3">
-        <v>43403</v>
+        <v>43403.40625</v>
       </c>
       <c r="Q4" s="3">
-        <v>43403</v>
+        <v>43403.506944444445</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>37</v>
@@ -697,16 +697,16 @@
         <v>27</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4">
-        <v>41</v>
+        <v>415</v>
       </c>
       <c r="E5" s="4">
-        <v>41</v>
+        <v>4143</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>31</v>
@@ -736,13 +736,13 @@
         <v>3</v>
       </c>
       <c r="O5" s="3">
-        <v>43405</v>
+        <v>43405.34375</v>
       </c>
       <c r="P5" s="3">
-        <v>43406</v>
+        <v>43404.40625</v>
       </c>
       <c r="Q5" s="3">
-        <v>43407</v>
+        <v>43404.506944444445</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>30</v>
@@ -753,16 +753,16 @@
         <v>27</v>
       </c>
       <c r="B6" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>41</v>
+        <v>4157</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>41</v>
@@ -792,13 +792,13 @@
         <v>1</v>
       </c>
       <c r="O6" s="3">
-        <v>43406</v>
+        <v>43406.34375</v>
       </c>
       <c r="P6" s="3">
-        <v>43407</v>
+        <v>43405.40625</v>
       </c>
       <c r="Q6" s="3">
-        <v>43408</v>
+        <v>43405.506944444445</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>37</v>
@@ -809,16 +809,16 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4">
-        <v>41</v>
+        <v>416</v>
       </c>
       <c r="E7" s="4">
-        <v>41</v>
+        <v>4153</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>41</v>
@@ -848,13 +848,13 @@
         <v>20</v>
       </c>
       <c r="O7" s="3">
-        <v>43407</v>
+        <v>43407.34375</v>
       </c>
       <c r="P7" s="3">
-        <v>43408</v>
+        <v>43406.40625</v>
       </c>
       <c r="Q7" s="3">
-        <v>43409</v>
+        <v>43406.506944444445</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>30</v>
